--- a/data/historical_estimates/raw/Julian_Beeson_1998_Tables4_5.xlsx
+++ b/data/historical_estimates/raw/Julian_Beeson_1998_Tables4_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76136041-C9F6-ED4E-AC23-732065800A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CC7174-8BFC-E34C-BC28-E9682AECA811}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="500" windowWidth="25440" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10400" yWindow="500" windowWidth="25440" windowHeight="20200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>Table 4</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
   <si>
     <t>Estimated days effort</t>
@@ -320,9 +317,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,9 +357,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,9 +392,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,9 +444,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -642,84 +673,84 @@
   <sheetData>
     <row r="1" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="V1" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="7">
         <v>4</v>
@@ -775,16 +806,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -825,16 +856,16 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -875,16 +906,16 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="7">
         <v>67</v>
@@ -940,16 +971,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -996,16 +1027,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="7">
         <v>30</v>
@@ -1061,16 +1092,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7">
         <v>13</v>
@@ -1126,16 +1157,16 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7">
         <v>2</v>
@@ -1191,16 +1222,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>3</v>
@@ -1241,16 +1272,16 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -1297,16 +1328,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -1347,16 +1378,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -1397,16 +1428,16 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1450,16 +1481,16 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -1500,16 +1531,16 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -1553,16 +1584,16 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -1606,16 +1637,16 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -1665,16 +1696,16 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -1721,16 +1752,16 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
@@ -1777,16 +1808,16 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -1842,16 +1873,16 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
@@ -1895,16 +1926,16 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="7">
         <v>9</v>
@@ -1957,16 +1988,16 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="7">
         <v>142</v>
@@ -2022,16 +2053,16 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" s="7">
         <v>1</v>
@@ -2072,16 +2103,16 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -2131,16 +2162,16 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E27" s="7">
         <v>67</v>
@@ -2196,16 +2227,16 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="7">
         <v>30</v>
@@ -2261,16 +2292,16 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="7">
         <v>0</v>
@@ -2317,16 +2348,16 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="7">
         <v>0</v>
@@ -2370,16 +2401,16 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="7">
         <v>0</v>
@@ -2429,16 +2460,16 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="7">
         <v>2</v>
@@ -2494,16 +2525,16 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="7">
         <v>0</v>
@@ -2560,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2573,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B1" s="7">
         <v>1990</v>
@@ -2603,7 +2634,7 @@
     </row>
     <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7">
         <v>3041</v>
@@ -2632,7 +2663,7 @@
     </row>
     <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
         <v>158</v>
@@ -2661,7 +2692,7 @@
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7">
         <v>5.1999999999999998E-2</v>
@@ -2690,7 +2721,7 @@
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7">
         <v>406</v>
